--- a/biology/Botanique/Ulysse_Darracq/Ulysse_Darracq.xlsx
+++ b/biology/Botanique/Ulysse_Darracq/Ulysse_Darracq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulysse Pierre Dalcan[note 1] Darracq, né en octobre 1798 à Dax et mort le 12 janvier 1872 à Bayonne, est un botaniste, pharmacien et naturaliste français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ulysse Darracq naît en octobre 1798 à Dax, mais sa date de naissance demeure incertaine : différentes sources évoquent le 10, le 18, le 19 ou le 20. Il étudie au collège impérial de Dax puis devient élève en pharmacie à Dax, chez Barthélémy Serres, le père d'Hector Serres, puis chez un oncle au Mans puis à Paris[1]. Il devient pharmacien le 2 novembre 1829 et ouvre une pharmacie à Saint-Esprit. En parallèle de cette activité, il étudie les plantes et les poissons et les oiseaux des Landes et des Pyrénées Atlantiques[2].
-Il fonde en 1856 le musée d'histoire naturelle de Bayonne à partir de ses collections personnelles, et en devient le premier conservateur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulysse Darracq naît en octobre 1798 à Dax, mais sa date de naissance demeure incertaine : différentes sources évoquent le 10, le 18, le 19 ou le 20. Il étudie au collège impérial de Dax puis devient élève en pharmacie à Dax, chez Barthélémy Serres, le père d'Hector Serres, puis chez un oncle au Mans puis à Paris. Il devient pharmacien le 2 novembre 1829 et ouvre une pharmacie à Saint-Esprit. En parallèle de cette activité, il étudie les plantes et les poissons et les oiseaux des Landes et des Pyrénées Atlantiques.
+Il fonde en 1856 le musée d'histoire naturelle de Bayonne à partir de ses collections personnelles, et en devient le premier conservateur.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rue Ulysse Darracq, Bayonne.</t>
         </is>
@@ -575,13 +591,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ouvrages
-Catalogue du département des Landes et des Pyrénées occidentales, 1836
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Catalogue du département des Landes et des Pyrénées occidentales, 1836
 Liste méthodique des poissons des eaux douces et salées des environs de Bayonne, 1836
 Notice sur la flore de nos environs, 1850
-Guide du voyageur de Bayonne à Saint-Sébastien,1850
-Découvertes
-Soldanella villosa, 1850
+Guide du voyageur de Bayonne à Saint-Sébastien,1850</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ulysse_Darracq</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ulysse_Darracq</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Découvertes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Soldanella villosa, 1850
 Iris bayonnensis, 1855
 Scorzonera humifusa, 1858
 Lepidium majus, 1869</t>
